--- a/Documentatie/Planning.xlsx
+++ b/Documentatie/Planning.xlsx
@@ -82,9 +82,6 @@
     <t>Bouwen van userinterface</t>
   </si>
   <si>
-    <t>Implementeren toevoegen van missies inclusief algoritme</t>
-  </si>
-  <si>
     <t>Implementeren overige must haves en should haves</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Moscow</t>
+  </si>
+  <si>
+    <t>implementeren van grote algoritmes</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -801,7 +801,7 @@
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -830,7 +830,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1"/>
     </row>
